--- a/biology/Botanique/Bengt_Lennart_Andersson/Bengt_Lennart_Andersson.xlsx
+++ b/biology/Botanique/Bengt_Lennart_Andersson/Bengt_Lennart_Andersson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bengt Lennart Andersson (1948-2005) est un botaniste et taxinomiste suédois, spécialiste des Spermaphytes et de la flore de l'Équateur.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bengt Lennart Andersson (plus connu sous le nom de Lennart Andersson) est né à Alingsås (province de Västergötland) et a étudié la botanique à Göteborg. Il y a obtenu un doctorat en botanique systématique en 1978 avec une thèse portant sur le genre Ischnosiphon (Marantaceae).
 Il a enseigné la botanique systématique à l'université de Göteborg à partir de 1987. Ses recherches se sont concentrées sur les Marantaceae et Musaceae néotropicales, en particulier sur leur taxinomie, leur morphologie et leur distribution géographique.
-Lennart Andersson fut un infatigable collecteur de plantes dans les zones néotropicales. Il est le co-éditeur de la Flora of Ecuador, fondée à Göteborg en 1973, dont il est l'unique auteur de plusieurs volumes[1].
+Lennart Andersson fut un infatigable collecteur de plantes dans les zones néotropicales. Il est le co-éditeur de la Flora of Ecuador, fondée à Göteborg en 1973, dont il est l'unique auteur de plusieurs volumes.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2004. Rubiaceae-Hippotideae. no 74 de Flora of Ecuador. Botanical Institute, Göteborg University. 46 p.  (ISBN 9188896463).
 1997. A revision of the genus Cinchona (Rubiaceae-Cinchoneae). Volumes 80-81 de Flora neotropica, New York Botanical Garden. 115 p.  (ISBN 089327416X).
 1997. The genus Ischnosiphon (Marantaceae). no 43 de Opera botanica, Lund Botanical Soc. 113 p.  (ISBN 9154602254).
-1985. Revision of Heliconia subgen. Stenochlamys (Musaceae-Heliconioideae), Volume 82 de Opera botanica. Council for Nordic Publications in Botany. 123 p.  (ISBN 8788702065)[2].</t>
+1985. Revision of Heliconia subgen. Stenochlamys (Musaceae-Heliconioideae), Volume 82 de Opera botanica. Council for Nordic Publications in Botany. 123 p.  (ISBN 8788702065).</t>
         </is>
       </c>
     </row>
